--- a/Cluster_Profiles.xlsx
+++ b/Cluster_Profiles.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,57 +442,242 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Member id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SEC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FEH</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AGE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EDU</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CHILD</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Affluence Index</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>No. of Brands</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Brand Runs</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Volume</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>No. of  Trans</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Trans / Brand Runs</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Vol/Tran</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Price</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Pur Vol No Promo - %</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Pur Vol Promo 6 %</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Pur Vol Other Promo %</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 57, 144</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 55</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 272</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 286</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 24</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 481</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 352</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 5</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Others 999</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 4</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 5</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 6</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 7</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 8</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 9</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 10</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 11</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 12</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 13</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 14</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 15</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>maxBrCd</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Switching_Freq</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>maxBrCd</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pur Vol No Promo - %</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pur Vol Promo 6 %</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pur Vol Other Promo %</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Volume</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>No. of  Trans</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Price</t>
         </is>
       </c>
     </row>
@@ -501,37 +686,148 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.6</v>
+        <v>1115668.31</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>2.29</v>
       </c>
       <c r="D2" t="n">
-        <v>5.53</v>
+        <v>1.57</v>
       </c>
       <c r="E2" t="n">
-        <v>0.22</v>
+        <v>7.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.71</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>3.31</v>
       </c>
       <c r="H2" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8756.23</v>
+      </c>
+      <c r="P2" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1038.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S2" t="n">
+        <v>340</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.08</v>
       </c>
-      <c r="I2" t="n">
-        <v>9015.82</v>
-      </c>
-      <c r="J2" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1086.84</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.59</v>
+      <c r="AJ2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.15</v>
       </c>
     </row>
     <row r="3">
@@ -539,37 +835,148 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.79</v>
+        <v>1098595.45</v>
       </c>
       <c r="C3" t="n">
-        <v>24.28</v>
+        <v>2.63</v>
       </c>
       <c r="D3" t="n">
-        <v>5.34</v>
+        <v>1.97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.27</v>
+        <v>7.68</v>
       </c>
       <c r="F3" t="n">
-        <v>0.93</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10253.9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1025.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>464.79</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.04</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17868.51</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46.72</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2108</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12.27</v>
+      <c r="AB3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="4">
@@ -577,37 +984,148 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.94</v>
+        <v>1108756.38</v>
       </c>
       <c r="C4" t="n">
-        <v>9.43</v>
+        <v>2.38</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.48</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.96</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>3.26</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>4.66</v>
       </c>
       <c r="I4" t="n">
-        <v>9172.799999999999</v>
+        <v>4.84</v>
       </c>
       <c r="J4" t="n">
-        <v>21.74</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>942.14</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>11.32</v>
+        <v>20.85</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15203.54</v>
+      </c>
+      <c r="P4" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1867.85</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>366.45</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.19</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,57 +1155,242 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Member id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SEC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FEH</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AGE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EDU</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CHILD</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Affluence Index</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>No. of Brands</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Brand Runs</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Volume</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>No. of  Trans</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Trans / Brand Runs</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Vol/Tran</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Price</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Pur Vol No Promo - %</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Pur Vol Promo 6 %</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Pur Vol Other Promo %</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 57, 144</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 55</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 272</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 286</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 24</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 481</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 352</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Br. Cd. 5</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Others 999</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Pr Cat 4</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 5</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 6</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 7</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 8</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 9</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 10</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 11</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 12</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 13</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 14</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>PropCat 15</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>maxBrCd</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Switching_Freq</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>maxBrCd</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pur Vol No Promo - %</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pur Vol Promo 6 %</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pur Vol Other Promo %</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Volume</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>No. of  Trans</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Price</t>
         </is>
       </c>
     </row>
@@ -696,37 +1399,148 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92</v>
+        <v>1108160.38</v>
       </c>
       <c r="C2" t="n">
-        <v>27.5</v>
+        <v>2.42</v>
       </c>
       <c r="D2" t="n">
-        <v>5.87</v>
+        <v>2.02</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.92</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9309.309999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1064.18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>411.63</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AU2" t="n">
         <v>0.04</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23618.18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2698.48</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11.6</v>
+      <c r="AV2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.39</v>
       </c>
     </row>
     <row r="3">
@@ -734,37 +1548,148 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.59</v>
+        <v>1114323.39</v>
       </c>
       <c r="C3" t="n">
-        <v>19.32</v>
+        <v>2.27</v>
       </c>
       <c r="D3" t="n">
-        <v>5.46</v>
+        <v>1.49</v>
       </c>
       <c r="E3" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8841.190000000001</v>
+      </c>
+      <c r="P3" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1048.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S3" t="n">
+        <v>332.09</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.24</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8786.059999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1073.19</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12.7</v>
+      <c r="W3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.94</v>
       </c>
     </row>
     <row r="4">
@@ -772,37 +1697,148 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.59</v>
+        <v>1108279.29</v>
       </c>
       <c r="C4" t="n">
-        <v>6.11</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="E4" t="n">
-        <v>0.62</v>
+        <v>9.24</v>
       </c>
       <c r="F4" t="n">
-        <v>0.97</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16081.46</v>
+      </c>
+      <c r="P4" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1957.61</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S4" t="n">
+        <v>344.38</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8722.76</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="K4" t="n">
-        <v>801.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.38</v>
+      <c r="AS4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="5">
@@ -810,37 +1846,148 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.95</v>
+        <v>1090865.06</v>
       </c>
       <c r="C5" t="n">
-        <v>17.63</v>
+        <v>2.79</v>
       </c>
       <c r="D5" t="n">
-        <v>4.8</v>
+        <v>1.95</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>7.62</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12141.66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1156.48</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>524.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.04</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11005.01</v>
-      </c>
-      <c r="J5" t="n">
-        <v>32.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1321.04</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12.7</v>
+      <c r="AB5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2.73</v>
       </c>
     </row>
   </sheetData>
